--- a/vig_text_dutch.xlsx
+++ b/vig_text_dutch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminjargow/Documents/01_ResMas/Internship/Paradigm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6283823D-484C-074B-827A-65381B36DD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B75DCC1-9B84-C743-873E-494BA3362A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,17 +382,17 @@
     <t>U ziet iemand rondrijden in een vieze auto die al een tijd niet is gewassen.</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>vignette_text</t>
+  </si>
+  <si>
+    <t>vignette_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -404,12 +404,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -433,10 +442,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -658,7 +668,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -667,11 +677,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C1" s="1"/>
     </row>
